--- a/Example1.xlsx
+++ b/Example1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Lead Agents</t>
   </si>
@@ -96,7 +96,37 @@
     <t>Canara Bank</t>
   </si>
   <si>
+    <t>Database2</t>
+  </si>
+  <si>
     <t>Lead1Part9</t>
+  </si>
+  <si>
+    <t>Participant</t>
+  </si>
+  <si>
+    <t>The rest</t>
+  </si>
+  <si>
+    <t>Co-manager</t>
+  </si>
+  <si>
+    <t>Co-lead manager/arranger</t>
+  </si>
+  <si>
+    <t>Co-bookrunner</t>
+  </si>
+  <si>
+    <t>Mandated arranger</t>
+  </si>
+  <si>
+    <t>Lead manager</t>
+  </si>
+  <si>
+    <t>Lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bookrunner </t>
   </si>
 </sst>
 </file>
@@ -123,12 +153,18 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -143,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -155,6 +191,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,19 +493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" x14ac:dyDescent="0.25">
@@ -560,8 +597,58 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="O3">
-        <v>1</v>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
